--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D46E9B-58F4-4CCD-B443-687096579914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F70A6-1000-498C-8031-1C1968137A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1455" windowWidth="24525" windowHeight="12975" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="525" yWindow="1800" windowWidth="24525" windowHeight="12975" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>Damage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1,4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -551,7 +555,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -584,6 +588,9 @@
       </c>
       <c r="C2">
         <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F70A6-1000-498C-8031-1C1968137A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E62D5E-430E-4E41-9FF8-2E98F6C0B5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1800" windowWidth="24525" windowHeight="12975" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="5835" yWindow="1125" windowWidth="24525" windowHeight="12975" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -112,7 +112,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1,4</t>
+    <t>10,104,105,108</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1,2,100,101,106</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20,21,102,103,107</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -211,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,11 +232,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -242,14 +257,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{23004FEA-833A-4497-8DE1-784229FAD0A6}" name="HP"/>
     <tableColumn id="3" xr3:uid="{1D00C6B3-5CC5-4855-8542-99689E093508}" name="Damage"/>
     <tableColumn id="4" xr3:uid="{A3C9DC52-6F26-4EAF-A83E-8289BE24DE9E}" name="Defnse"/>
-    <tableColumn id="6" xr3:uid="{EF91164A-9BD9-4C7F-B841-7EFB5E323B10}" name="Skill"/>
+    <tableColumn id="6" xr3:uid="{EF91164A-9BD9-4C7F-B841-7EFB5E323B10}" name="Skill" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,17 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -578,7 +593,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -589,44 +604,30 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E62D5E-430E-4E41-9FF8-2E98F6C0B5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E2EDF-E8E9-42C8-A14F-43F9FBD792BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1125" windowWidth="24525" windowHeight="12975" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -121,6 +121,26 @@
   </si>
   <si>
     <t>20,21,102,103,107</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ResourcesPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeftEquipment</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -257,10 +277,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
+    <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
+    <tableColumn id="7" xr3:uid="{E8422299-B8D2-424F-A139-0D172460A263}" name="LeftEquipment"/>
     <tableColumn id="2" xr3:uid="{23004FEA-833A-4497-8DE1-784229FAD0A6}" name="HP"/>
     <tableColumn id="3" xr3:uid="{1D00C6B3-5CC5-4855-8542-99689E093508}" name="Damage"/>
     <tableColumn id="4" xr3:uid="{A3C9DC52-6F26-4EAF-A83E-8289BE24DE9E}" name="Defnse"/>
@@ -567,66 +589,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E2EDF-E8E9-42C8-A14F-43F9FBD792BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B4558-CE45-4F47-9CBA-9B9C8E938156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -112,18 +112,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>10,104,105,108</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1,2,100,101,106</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20,21,102,103,107</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ResourcesPath</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -141,6 +129,22 @@
   </si>
   <si>
     <t>LeftEquipment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20,21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PondId</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -277,9 +281,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
     <tableColumn id="7" xr3:uid="{E8422299-B8D2-424F-A139-0D172460A263}" name="LeftEquipment"/>
@@ -287,6 +291,7 @@
     <tableColumn id="3" xr3:uid="{1D00C6B3-5CC5-4855-8542-99689E093508}" name="Damage"/>
     <tableColumn id="4" xr3:uid="{A3C9DC52-6F26-4EAF-A83E-8289BE24DE9E}" name="Defnse"/>
     <tableColumn id="6" xr3:uid="{EF91164A-9BD9-4C7F-B841-7EFB5E323B10}" name="Skill" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{3FE6AFE5-A893-4427-B4C5-01411402E67B}" name="PondId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -604,15 +609,15 @@
     <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -626,41 +631,50 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -669,7 +683,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>10003</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\00_共通\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B4558-CE45-4F47-9CBA-9B9C8E938156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A5213-0150-4B4B-A2C8-B73EFA0B58DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -145,6 +143,42 @@
   </si>
   <si>
     <t>PondId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_004</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -281,8 +315,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
@@ -594,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -642,8 +676,14 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -659,8 +699,14 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>18</v>
@@ -679,14 +725,236 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H4">
         <v>10003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>10012</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\00_共通\設定ファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A5213-0150-4B4B-A2C8-B73EFA0B58DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D45DB9-5A5C-4319-8A26-EFAAB06992A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -180,6 +180,9 @@
   <si>
     <t>Prefabs/Game/Equip/BowObject_3d_004</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RareLevel</t>
   </si>
 </sst>
 </file>
@@ -315,11 +318,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:H13" totalsRowShown="0">
-  <autoFilter ref="A1:H13" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
+    <tableColumn id="9" xr3:uid="{50DEC980-4FC4-4E5A-8A1F-2AC9F41B83F8}" name="RareLevel"/>
     <tableColumn id="7" xr3:uid="{E8422299-B8D2-424F-A139-0D172460A263}" name="LeftEquipment"/>
     <tableColumn id="2" xr3:uid="{23004FEA-833A-4497-8DE1-784229FAD0A6}" name="HP"/>
     <tableColumn id="3" xr3:uid="{1D00C6B3-5CC5-4855-8542-99689E093508}" name="Damage"/>
@@ -628,22 +632,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,71 +656,80 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -726,68 +740,77 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -795,71 +818,80 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>25</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10008</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -867,71 +899,80 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10010</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>40</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10011</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -939,21 +980,24 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>38</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10012</v>
       </c>
     </row>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D45DB9-5A5C-4319-8A26-EFAAB06992A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092D46FE-CDC9-46AC-883E-39AD73531BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
@@ -183,6 +183,7 @@
   </si>
   <si>
     <t>RareLevel</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -635,7 +636,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092D46FE-CDC9-46AC-883E-39AD73531BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6AE07-76D5-4D2A-976F-A2C7DE557476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
@@ -33,17 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Attack</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -183,6 +179,41 @@
   </si>
   <si>
     <t>RareLevel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レアレベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左手に装備するか（１の場合）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加スキルのPond</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10013,10014</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -281,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,11 +328,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -319,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
@@ -329,8 +366,8 @@
     <tableColumn id="2" xr3:uid="{23004FEA-833A-4497-8DE1-784229FAD0A6}" name="HP"/>
     <tableColumn id="3" xr3:uid="{1D00C6B3-5CC5-4855-8542-99689E093508}" name="Damage"/>
     <tableColumn id="4" xr3:uid="{A3C9DC52-6F26-4EAF-A83E-8289BE24DE9E}" name="Defnse"/>
-    <tableColumn id="6" xr3:uid="{EF91164A-9BD9-4C7F-B841-7EFB5E323B10}" name="Skill" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{3FE6AFE5-A893-4427-B4C5-01411402E67B}" name="PondId"/>
+    <tableColumn id="6" xr3:uid="{EF91164A-9BD9-4C7F-B841-7EFB5E323B10}" name="Skill" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{3FE6AFE5-A893-4427-B4C5-01411402E67B}" name="PondId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -633,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -647,6 +684,7 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -654,28 +692,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -683,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -698,9 +736,9 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4">
         <v>10001</v>
       </c>
     </row>
@@ -709,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -724,9 +762,9 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4">
         <v>10002</v>
       </c>
     </row>
@@ -735,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -753,9 +791,9 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4">
         <v>10003</v>
       </c>
     </row>
@@ -764,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -779,9 +817,9 @@
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4">
         <v>10004</v>
       </c>
     </row>
@@ -790,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -805,9 +843,9 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4">
         <v>10005</v>
       </c>
     </row>
@@ -816,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -834,9 +872,9 @@
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4">
         <v>10006</v>
       </c>
     </row>
@@ -845,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -860,9 +898,9 @@
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4">
         <v>10007</v>
       </c>
     </row>
@@ -871,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -886,9 +924,9 @@
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4">
         <v>10008</v>
       </c>
     </row>
@@ -897,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -915,9 +953,9 @@
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4">
         <v>10009</v>
       </c>
     </row>
@@ -926,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -941,9 +979,9 @@
         <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4">
         <v>10010</v>
       </c>
     </row>
@@ -952,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -967,9 +1005,9 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4">
         <v>10011</v>
       </c>
     </row>
@@ -978,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -996,10 +1034,27 @@
         <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="I13" s="4">
         <v>10012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1014,17 +1069,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97EC095-711B-4CEC-AE87-D8C9F5562D2A}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -1034,47 +1092,87 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6AE07-76D5-4D2A-976F-A2C7DE557476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A94738-D91F-4D65-AF41-2277947B7C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="240" yWindow="504" windowWidth="17292" windowHeight="8964" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -214,6 +214,42 @@
   </si>
   <si>
     <t>10013,10014</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10004,10001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10005,10002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10006,10003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10007,10001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10008,10002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10009,10003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10010,10004,10001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10011,10005,10002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10012,10006,10003</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -673,21 +709,21 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,7 +778,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -768,7 +804,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -797,7 +833,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -819,11 +855,11 @@
       <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -845,11 +881,11 @@
       <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -874,11 +910,11 @@
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="4">
-        <v>10006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -900,11 +936,11 @@
       <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="4">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -926,11 +962,11 @@
       <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -955,11 +991,11 @@
       <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -981,11 +1017,11 @@
       <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="4">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1007,11 +1043,11 @@
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="4">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1036,11 +1072,11 @@
       <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="4">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1075,102 +1111,102 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A94738-D91F-4D65-AF41-2277947B7C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957674-07BE-4CED-AFC9-94800CEBC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="504" windowWidth="17292" windowHeight="8964" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>10012,10006,10003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TagType</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -392,12 +396,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:I14" totalsRowShown="0">
-  <autoFilter ref="A1:I14" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:J14" totalsRowShown="0">
+  <autoFilter ref="A1:J14" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
     <tableColumn id="9" xr3:uid="{50DEC980-4FC4-4E5A-8A1F-2AC9F41B83F8}" name="RareLevel"/>
+    <tableColumn id="10" xr3:uid="{2BB29526-5D85-4E76-AC6A-DE6DA09BE5CC}" name="TagType"/>
     <tableColumn id="7" xr3:uid="{E8422299-B8D2-424F-A139-0D172460A263}" name="LeftEquipment"/>
     <tableColumn id="2" xr3:uid="{23004FEA-833A-4497-8DE1-784229FAD0A6}" name="HP"/>
     <tableColumn id="3" xr3:uid="{1D00C6B3-5CC5-4855-8542-99689E093508}" name="Damage"/>
@@ -706,24 +711,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,25 +739,28 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -762,23 +770,26 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -788,23 +799,26 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -815,25 +829,28 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -843,23 +860,26 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -869,23 +889,26 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -896,25 +919,28 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -924,23 +950,26 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -950,23 +979,26 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -977,25 +1009,28 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>25</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1005,23 +1040,26 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>25</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>45</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1031,23 +1069,26 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>40</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1058,38 +1099,41 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>38</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>100</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1111,102 +1155,102 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957674-07BE-4CED-AFC9-94800CEBC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70489FF2-EF73-4BBB-B6EA-147DAD11F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,21 +714,21 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -818,7 +818,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -908,7 +908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -969,7 +969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -998,7 +998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1044,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1059,7 +1059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1105,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>18</v>
@@ -1120,7 +1120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1155,102 +1155,102 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70489FF2-EF73-4BBB-B6EA-147DAD11F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253546FE-A5C3-44FB-B43B-D27CB91A16ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="2400" yWindow="2748" windowWidth="15816" windowHeight="8760" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -254,6 +254,90 @@
   </si>
   <si>
     <t>TagType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10015,10016</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10017,10018,10019</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10020,10018,10019</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10021,10016</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10022,10023,10024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10025,10023,10024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10026,10016</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10027,10028,10029</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10030,10028,10029</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -396,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:J14" totalsRowShown="0">
-  <autoFilter ref="A1:J14" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:J26" totalsRowShown="0">
+  <autoFilter ref="A1:J26" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
@@ -711,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1122,18 +1206,378 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>46</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>100</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="F14">
+      <c r="G23">
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>80</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1152,7 +1596,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253546FE-A5C3-44FB-B43B-D27CB91A16ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F887B7-6980-446F-B9E1-813D95E210C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2748" windowWidth="15816" windowHeight="8760" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -338,6 +338,42 @@
   </si>
   <si>
     <t>10030,10028,10029</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/SwordObject_3d_011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/BowObject_3d_011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Equip/WandObject_3d_011</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -480,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:J26" totalsRowShown="0">
-  <autoFilter ref="A1:J26" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}" name="テーブル1" displayName="テーブル1" ref="A1:J35" totalsRowShown="0">
+  <autoFilter ref="A1:J35" xr:uid="{BF8BEFF2-BC81-4161-8620-2F70B050B5D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0D7094D2-07C0-4242-9E9C-DD242CDD8DFE}" name="ID"/>
     <tableColumn id="5" xr3:uid="{500C3E60-E366-49DA-A28C-1A70B7603EA9}" name="ResourcesPath"/>
@@ -795,24 +831,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -873,7 +909,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -902,7 +938,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -934,7 +970,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -963,7 +999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -992,7 +1028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1024,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1053,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1082,7 +1118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1114,7 +1150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1143,7 +1179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1172,7 +1208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1233,7 +1269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1262,7 +1298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1294,7 +1330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1323,7 +1359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1352,7 +1388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1384,7 +1420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1413,7 +1449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1442,7 +1478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1474,7 +1510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1503,7 +1539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1564,20 +1600,182 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>100</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="F26">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="H26">
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1599,102 +1797,102 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>33</v>
       </c>

--- a/Config/Excel/Equipment.xlsx
+++ b/Config/Excel/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F887B7-6980-446F-B9E1-813D95E210C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A90684-B691-45B3-A80F-A4BD4E9A5EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
+    <workbookView xWindow="2136" yWindow="372" windowWidth="20316" windowHeight="11352" xr2:uid="{24023C8C-2188-4DF1-B716-E7A13EE9D94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>Prefabs/Game/Equip/WandObject_3d_011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10031,10018,10019</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10031,10028,10029</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10031,10023,10024</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -833,22 +845,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D7A93-2094-4C71-9380-707F289E7736}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -909,7 +921,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -938,7 +950,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -970,7 +982,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -999,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1613,11 +1625,23 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>98</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
       <c r="I26" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J26" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1633,11 +1657,23 @@
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>87</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1650,11 +1686,23 @@
       <c r="D28">
         <v>2</v>
       </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
       <c r="I28" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1667,11 +1715,23 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>110</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
       <c r="I29" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1687,11 +1747,23 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>120</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="I30" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J30" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1704,11 +1776,23 @@
       <c r="D31">
         <v>2</v>
       </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1721,11 +1805,23 @@
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
       <c r="I32" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J32" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1741,11 +1837,23 @@
       <c r="E33">
         <v>1</v>
       </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>43</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1758,11 +1866,23 @@
       <c r="D34">
         <v>2</v>
       </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
       <c r="I34" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J34" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>100</v>
       </c>
@@ -1797,102 +1917,102 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
